--- a/data/raw/spending.xlsx
+++ b/data/raw/spending.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="wage" sheetId="3" r:id="rId1"/>
-    <sheet name="categories" sheetId="1" r:id="rId2"/>
-    <sheet name="spending" sheetId="2" r:id="rId3"/>
+    <sheet name="categories" sheetId="1" r:id="rId1"/>
+    <sheet name="spending" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -60,30 +59,29 @@
     <t>shop</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>benefit card</t>
+  </si>
+  <si>
     <t>drugstore</t>
-  </si>
-  <si>
-    <t>month gain</t>
-  </si>
-  <si>
-    <t>fuel</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>amazonprime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,10 +96,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,25 +125,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -179,15 +184,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -199,19 +195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:B4" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="2" name="date" dataDxfId="9"/>
-    <tableColumn id="1" name="month gain" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:A11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:A12"/>
   <sortState ref="A2:A12">
     <sortCondition ref="A2"/>
   </sortState>
@@ -222,9 +207,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D67" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D67"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:D80" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D80"/>
   <sortState ref="A2:I78">
     <sortCondition ref="A2"/>
   </sortState>
@@ -232,7 +217,7 @@
     <tableColumn id="1" name="date" dataDxfId="3"/>
     <tableColumn id="3" name="category" dataDxfId="2"/>
     <tableColumn id="6" name="discription " dataDxfId="1"/>
-    <tableColumn id="7" name="value" dataDxfId="0"/>
+    <tableColumn id="7" name="value" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,124 +510,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B2" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44255</v>
-      </c>
-      <c r="B3" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -656,34 +592,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -691,800 +627,940 @@
       <c r="A2" s="1">
         <v>44200</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3">
-        <v>30</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44200</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
-        <v>60</v>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44201</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
+        <v>44200</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44203</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>75</v>
+        <v>44201</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44204</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30</v>
+        <v>44203</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44207</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
+        <v>44204</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44207</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>75</v>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44207</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>30</v>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <v>75.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44207</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>15</v>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44208</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
+        <v>44207</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44210</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
-        <v>40</v>
+        <v>44208</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44210</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3">
-        <v>20</v>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44210</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3">
-        <v>70</v>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>350</v>
+        <v>44210</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44214</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
-        <v>20</v>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6">
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44214</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44215</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3">
-        <v>40</v>
+        <v>44214</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44215</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3">
-        <v>60</v>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44218</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3">
-        <v>175</v>
+        <v>44215</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44218</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3">
-        <v>40</v>
+        <v>44216</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6">
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44219</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
+        <v>44218</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6">
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44221</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3">
-        <v>90</v>
+        <v>44218</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44221</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3">
-        <v>390</v>
+        <v>44218</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44221</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
+        <v>44219</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44222</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3">
-        <v>10</v>
+        <v>44221</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44224</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3">
-        <v>50</v>
+        <v>44221</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6">
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3">
-        <v>150</v>
+        <v>44221</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="3">
-        <v>70</v>
+        <v>44222</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44231</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3">
-        <v>10</v>
+        <v>44223</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44235</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="3">
-        <v>10</v>
+        <v>44224</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44235</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3">
-        <v>20</v>
+        <v>44227</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44238</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3">
-        <v>100</v>
+        <v>44228</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44238</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="8" t="s">
+        <v>44231</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44238</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3">
-        <v>40</v>
+        <v>44235</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="3">
-        <v>15</v>
+        <v>44235</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44237</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5</v>
+        <v>44238</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44239</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44244</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3">
-        <v>180</v>
+        <v>44238</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44246</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="3">
-        <v>80</v>
+        <v>44227</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44246</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45</v>
+        <v>44237</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44247</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44239</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44249</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3">
-        <v>40</v>
+        <v>44244</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="6">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44249</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="3">
-        <v>50</v>
+        <v>44244</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="6">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44250</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3">
-        <v>35</v>
+        <v>44244</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44252</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44249</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="4">
-        <v>10</v>
+        <v>44246</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6">
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44254</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="3">
-        <v>110</v>
+        <v>44246</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="3">
-        <v>30</v>
+        <v>44247</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="6">
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="4">
-        <v>345</v>
+        <v>44249</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44263</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="3">
-        <v>30</v>
+        <v>44249</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44263</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="3">
-        <v>80</v>
+        <v>44249</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44265</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="3">
-        <v>5</v>
+        <v>44250</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="6">
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44267</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="3">
-        <v>10</v>
+        <v>44252</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="6">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44270</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3">
-        <v>60</v>
+        <v>44252</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6">
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44276</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
-        <v>75</v>
+        <v>44249</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44279</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3">
-        <v>75</v>
+        <v>44249</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="6">
+        <v>3000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44276</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="3">
-        <v>100</v>
+        <v>44254</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="6">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44280</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="3">
-        <v>80</v>
+        <v>44256</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44274</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="4">
-        <v>455</v>
+        <v>44256</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="6">
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44277</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="4">
+        <v>44258</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44277</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="4">
-        <v>50</v>
+        <v>44260</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44281</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="4">
-        <v>70</v>
+        <v>44263</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6">
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44282</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="4">
-        <v>5</v>
+        <v>44263</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="6">
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>44282</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="B79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="6">
         <v>300</v>
       </c>
     </row>
@@ -1499,7 +1575,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>categories!$A$2:$A$11</xm:f>
+            <xm:f>categories!$A$2:$A$12</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
